--- a/Physik/Praktikum/Versuch Drehschwingunen/Ergebnisse.xlsx
+++ b/Physik/Praktikum/Versuch Drehschwingunen/Ergebnisse.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/moritz_wieland_bwedu_de/Documents/Module/Physik/Praktikum/Versuch Drehschwingunen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01A964AD-6641-B540-9A83-878732202AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="354" documentId="8_{01A964AD-6641-B540-9A83-878732202AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24727245-330C-5045-A3D9-96DC871243D1}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{1DD4A0C7-F59A-A441-B76A-37DAD2FD2B99}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{1DD4A0C7-F59A-A441-B76A-37DAD2FD2B99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,8 +35,92 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+  <si>
+    <t>bei 10 Perioden</t>
+  </si>
+  <si>
+    <t>Schwingungsdauer in s</t>
+  </si>
+  <si>
+    <t>Periodendauer T in s</t>
+  </si>
+  <si>
+    <t>Eigenfrequenz in s</t>
+  </si>
+  <si>
+    <t>Messfehler Periodendauer in s</t>
+  </si>
+  <si>
+    <t>Größtfehler in s</t>
+  </si>
+  <si>
+    <t>Amplitude</t>
+  </si>
+  <si>
+    <t>Zeit t in s</t>
+  </si>
+  <si>
+    <t>Amplitude bei 2 V</t>
+  </si>
+  <si>
+    <t>Amplitude bei 4 V</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Periodendauer T in s bei 4 V</t>
+  </si>
+  <si>
+    <t>Periodendauer T in s bei 2 V</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Beta 1</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>2 V</t>
+  </si>
+  <si>
+    <t>4 V</t>
+  </si>
+  <si>
+    <t>omega_a (1/s)</t>
+  </si>
+  <si>
+    <t>Phi in Grad</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>T/2 links in ms</t>
+  </si>
+  <si>
+    <t>T/2 rechts in ms</t>
+  </si>
+  <si>
+    <t>T in ms</t>
+  </si>
+  <si>
+    <t>Phasenzeit in ms</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -54,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,12 +146,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -83,6 +186,3996 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amplitude bei 2 V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.7873797025371833E-2"/>
+                  <c:y val="-0.11121135899679206"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9460000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8920000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.838000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7840000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.676000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.622000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.568000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.514000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$16:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF64-8049-9CEF-9EE3A0DC0C2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="879026911"/>
+        <c:axId val="1359892447"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="879026911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1359892447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1359892447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="879026911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amplitude bei 4 V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.0472659667541561E-2"/>
+                  <c:y val="-5.9336541265675127E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$28:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8349999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.614999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$28:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7CF6-7B4C-A2D7-E6EF7C4015C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1312559007"/>
+        <c:axId val="875686511"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1312559007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="875686511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="875686511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1312559007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Amplitude über</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Anregungsfrequenz</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amplitude</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$48:$F$60</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.8941433934498324</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0149641589153484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.066464278760169</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1353220095706518</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1701237674972682</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1975497746461001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2287694281498389</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2656888290954194</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2879043993613744</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3226786394392311</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3871618906628496</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4447287868309138</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5598783610082645</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$48:$G$60</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C1AF-3149-9BB6-C88351A95C83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1359939119"/>
+        <c:axId val="879544047"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1359939119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2.7"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="879544047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="879544047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1359939119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Phasenzeit über Anregungsfrequenz</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Phasenzeit in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$48:$F$60</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.8941433934498324</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0149641589153484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.066464278760169</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1353220095706518</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1701237674972682</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1975497746461001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2287694281498389</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2656888290954194</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2879043993613744</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3226786394392311</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3871618906628496</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4447287868309138</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5598783610082645</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$48:$H$60</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>617</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-05DE-DF4C-AB91-1AF1106CC311}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1360914719"/>
+        <c:axId val="1360101439"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1360914719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2.7"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1360101439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1360101439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1360914719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE9237B5-3C56-13E5-EB49-DEDE11BBC585}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17780</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>16510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>782320</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6A8F9F3-C7E1-F633-1EA4-1511E632BE7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>386080</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B9E4C9B-830A-4BC3-9111-DB2174A4FCFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>568960</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DEDF7DD-0D58-4F6A-CD10-4B18685F10CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,12 +4475,859 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12BC500-A4FF-6045-ABAC-036A2B272161}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="125" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>19.27</v>
+      </c>
+      <c r="D3" s="2">
+        <f>C3/10</f>
+        <v>1.927</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>19.16</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D7" si="0">C4/10</f>
+        <v>1.9159999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>19.2</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>18.95</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.895</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>19.11</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.911</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUM(D3:D7)/5</f>
+        <v>1.9137999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <f>2*PI()/D8</f>
+        <v>3.2830940052145401</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2">
+        <f>ABS(-(2*PI())/(D8^2))*D11</f>
+        <v>5.1464531380727457E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f>B16*$D$42</f>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f>B17*$D$42</f>
+        <v>1.9460000000000002</v>
+      </c>
+      <c r="D17">
+        <v>14.2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17">
+        <f>D17/D18</f>
+        <v>1.1833333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <f>B18*$D$42</f>
+        <v>3.8920000000000003</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <f>B19*$D$42</f>
+        <v>5.838000000000001</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <f>B20*$D$42</f>
+        <v>7.7840000000000007</v>
+      </c>
+      <c r="D20">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <f>B21*$D$42</f>
+        <v>9.73</v>
+      </c>
+      <c r="D21">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <f>B22*$D$42</f>
+        <v>11.676000000000002</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <f>B23*$D$42</f>
+        <v>13.622000000000002</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <f>B24*$D$42</f>
+        <v>15.568000000000001</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <f>B25*$D$42</f>
+        <v>17.514000000000003</v>
+      </c>
+      <c r="D25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <f>B28*$D$39</f>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <f>B29*$D$39</f>
+        <v>1.9449999999999998</v>
+      </c>
+      <c r="D29">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="L29" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29">
+        <f>D29/D30</f>
+        <v>1.8399999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <f>B30*$D$39</f>
+        <v>3.8899999999999997</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <f>B31*$D$39</f>
+        <v>5.8349999999999991</v>
+      </c>
+      <c r="D31">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <f>B32*$D$39</f>
+        <v>7.7799999999999994</v>
+      </c>
+      <c r="D32">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <f>B33*$D$39</f>
+        <v>9.7249999999999996</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <f>B34*$D$39</f>
+        <v>11.669999999999998</v>
+      </c>
+      <c r="D34">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <f>B35*$D$39</f>
+        <v>13.614999999999998</v>
+      </c>
+      <c r="D35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="I38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <f>SUM(D40:D41)</f>
+        <v>1.9449999999999998</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39">
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>0.93</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40">
+        <f>LN(M17)/D42</f>
+        <v>8.6503245025290193E-2</v>
+      </c>
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40">
+        <f>LN(M29)/D39</f>
+        <v>0.31350414993362169</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>1.0149999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <f>SUM(D43:D44)</f>
+        <v>1.9460000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>1.014</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="7">
+        <v>445</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1117</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1054</v>
+      </c>
+      <c r="E48" s="7">
+        <f>C48+D48</f>
+        <v>2171</v>
+      </c>
+      <c r="F48" s="1">
+        <f>2*PI()/E48*1000</f>
+        <v>2.8941433934498324</v>
+      </c>
+      <c r="G48" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="H48" s="7">
+        <v>65</v>
+      </c>
+      <c r="I48" s="1">
+        <f>360*H48/E48</f>
+        <v>10.778443113772456</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B49" s="7">
+        <v>465</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1058</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1026</v>
+      </c>
+      <c r="E49" s="7">
+        <f t="shared" ref="E49:E60" si="1">C49+D49</f>
+        <v>2084</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" ref="F49:F60" si="2">2*PI()/E49*1000</f>
+        <v>3.0149641589153484</v>
+      </c>
+      <c r="G49" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="H49" s="7">
+        <v>122</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" ref="I49:I60" si="3">360*H49/E49</f>
+        <v>21.074856046065261</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="7">
+        <v>475</v>
+      </c>
+      <c r="C50" s="7">
+        <v>1034</v>
+      </c>
+      <c r="D50" s="7">
+        <v>1015</v>
+      </c>
+      <c r="E50" s="7">
+        <f t="shared" si="1"/>
+        <v>2049</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="2"/>
+        <v>3.066464278760169</v>
+      </c>
+      <c r="G50" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="H50" s="7">
+        <v>163</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="3"/>
+        <v>28.63836017569546</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="7">
+        <v>485</v>
+      </c>
+      <c r="C51" s="7">
+        <v>1001</v>
+      </c>
+      <c r="D51" s="7">
+        <v>1003</v>
+      </c>
+      <c r="E51" s="7">
+        <f t="shared" si="1"/>
+        <v>2004</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="2"/>
+        <v>3.1353220095706518</v>
+      </c>
+      <c r="G51" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="H51" s="7">
+        <v>248</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="3"/>
+        <v>44.550898203592816</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="7">
+        <v>490</v>
+      </c>
+      <c r="C52" s="7">
+        <v>984</v>
+      </c>
+      <c r="D52" s="7">
+        <v>998</v>
+      </c>
+      <c r="E52" s="7">
+        <f t="shared" si="1"/>
+        <v>1982</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="2"/>
+        <v>3.1701237674972682</v>
+      </c>
+      <c r="G52" s="8">
+        <v>8</v>
+      </c>
+      <c r="H52" s="7">
+        <v>308</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="3"/>
+        <v>55.943491422805245</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="7">
+        <v>495</v>
+      </c>
+      <c r="C53" s="7">
+        <v>971</v>
+      </c>
+      <c r="D53" s="7">
+        <v>994</v>
+      </c>
+      <c r="E53" s="7">
+        <f t="shared" si="1"/>
+        <v>1965</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="2"/>
+        <v>3.1975497746461001</v>
+      </c>
+      <c r="G53" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="H53" s="7">
+        <v>397</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="3"/>
+        <v>72.732824427480921</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B54" s="7">
+        <v>500</v>
+      </c>
+      <c r="C54" s="7">
+        <v>959</v>
+      </c>
+      <c r="D54" s="7">
+        <v>987</v>
+      </c>
+      <c r="E54" s="7">
+        <f t="shared" si="1"/>
+        <v>1946</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2287694281498389</v>
+      </c>
+      <c r="G54" s="8">
+        <v>10</v>
+      </c>
+      <c r="H54" s="7">
+        <v>498</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="3"/>
+        <v>92.127440904419316</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B55" s="7">
+        <v>505</v>
+      </c>
+      <c r="C55" s="7">
+        <v>950</v>
+      </c>
+      <c r="D55" s="7">
+        <v>974</v>
+      </c>
+      <c r="E55" s="7">
+        <f t="shared" si="1"/>
+        <v>1924</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2656888290954194</v>
+      </c>
+      <c r="G55" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="H55" s="7">
+        <v>617</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" si="3"/>
+        <v>115.44698544698545</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="7">
+        <v>510</v>
+      </c>
+      <c r="C56" s="7">
+        <v>946</v>
+      </c>
+      <c r="D56" s="7">
+        <v>965</v>
+      </c>
+      <c r="E56" s="7">
+        <f t="shared" si="1"/>
+        <v>1911</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2879043993613744</v>
+      </c>
+      <c r="G56" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="H56" s="7">
+        <v>667</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" si="3"/>
+        <v>125.65149136577708</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B57" s="7">
+        <v>515</v>
+      </c>
+      <c r="C57" s="7">
+        <v>941</v>
+      </c>
+      <c r="D57" s="7">
+        <v>950</v>
+      </c>
+      <c r="E57" s="7">
+        <f t="shared" si="1"/>
+        <v>1891</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="2"/>
+        <v>3.3226786394392311</v>
+      </c>
+      <c r="G57" s="8">
+        <v>7</v>
+      </c>
+      <c r="H57" s="7">
+        <v>717</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" si="3"/>
+        <v>136.49920676890534</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B58" s="7">
+        <v>525</v>
+      </c>
+      <c r="C58" s="7">
+        <v>931</v>
+      </c>
+      <c r="D58" s="7">
+        <v>924</v>
+      </c>
+      <c r="E58" s="7">
+        <f t="shared" si="1"/>
+        <v>1855</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="2"/>
+        <v>3.3871618906628496</v>
+      </c>
+      <c r="G58" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H58" s="7">
+        <v>761</v>
+      </c>
+      <c r="I58" s="1">
+        <f t="shared" si="3"/>
+        <v>147.68733153638814</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B59" s="7">
+        <v>535</v>
+      </c>
+      <c r="C59" s="7">
+        <v>923</v>
+      </c>
+      <c r="D59" s="7">
+        <v>901</v>
+      </c>
+      <c r="E59" s="7">
+        <f t="shared" si="1"/>
+        <v>1824</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="2"/>
+        <v>3.4447287868309138</v>
+      </c>
+      <c r="G59" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="H59" s="7">
+        <v>777</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" si="3"/>
+        <v>153.35526315789474</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B60" s="7">
+        <v>555</v>
+      </c>
+      <c r="C60" s="7">
+        <v>906</v>
+      </c>
+      <c r="D60" s="7">
+        <v>859</v>
+      </c>
+      <c r="E60" s="7">
+        <f t="shared" si="1"/>
+        <v>1765</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="2"/>
+        <v>3.5598783610082645</v>
+      </c>
+      <c r="G60" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="H60" s="7">
+        <v>771</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" si="3"/>
+        <v>157.25779036827194</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="I38:J38"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Physik/Praktikum/Versuch Drehschwingunen/Ergebnisse.xlsx
+++ b/Physik/Praktikum/Versuch Drehschwingunen/Ergebnisse.xlsx
@@ -8,13 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/moritz_wieland_bwedu_de/Documents/Module/Physik/Praktikum/Versuch Drehschwingunen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="354" documentId="8_{01A964AD-6641-B540-9A83-878732202AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24727245-330C-5045-A3D9-96DC871243D1}"/>
+  <xr:revisionPtr revIDLastSave="386" documentId="8_{01A964AD-6641-B540-9A83-878732202AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8E06191-5C64-094D-B4FE-07444D263A1F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{1DD4A0C7-F59A-A441-B76A-37DAD2FD2B99}"/>
+    <workbookView xWindow="4860" yWindow="22100" windowWidth="28800" windowHeight="17500" xr2:uid="{1DD4A0C7-F59A-A441-B76A-37DAD2FD2B99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$F$48:$F$60</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$H$47</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$H$48:$H$60</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$F$48:$F$60</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$H$47</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$H$48:$H$60</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,9 +53,6 @@
   </si>
   <si>
     <t>Periodendauer T in s</t>
-  </si>
-  <si>
-    <t>Eigenfrequenz in s</t>
   </si>
   <si>
     <t>Messfehler Periodendauer in s</t>
@@ -112,6 +117,9 @@
   <si>
     <t>Phasenzeit in ms</t>
   </si>
+  <si>
+    <t>Eigenfrequenz in Hz</t>
+  </si>
 </sst>
 </file>
 
@@ -159,18 +167,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,6 +447,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Zeit in s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -503,6 +564,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Amplitude</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -552,6 +668,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -837,6 +984,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Zeit in s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -899,6 +1101,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Amplitude</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -948,6 +1205,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1070,7 +1358,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1087,10 +1375,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1206,7 +1492,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C1AF-3149-9BB6-C88351A95C83}"/>
@@ -1246,6 +1532,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Anregungsfrequenz in (1/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1308,6 +1649,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Amplitude</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1357,6 +1753,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1474,7 +1901,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1491,10 +1918,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1610,7 +2035,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-05DE-DF4C-AB91-1AF1106CC311}"/>
@@ -1650,6 +2075,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Anregungsfrequenz</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> in (1/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1712,6 +2197,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Phsenzeit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1761,6 +2301,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4034,15 +4605,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>172720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4070,13 +4641,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>17780</xdr:colOff>
+      <xdr:colOff>10160</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>16510</xdr:rowOff>
+      <xdr:rowOff>10160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>782320</xdr:colOff>
+      <xdr:colOff>772160</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4113,8 +4684,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>386080</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4149,8 +4720,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4176,6 +4747,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4477,8 +5052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12BC500-A4FF-6045-ABAC-036A2B272161}">
   <dimension ref="B2:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4562,14 +5137,14 @@
       <c r="C8" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <f>SUM(D3:D7)/5</f>
         <v>1.9137999999999997</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2">
         <f>2*PI()/D8</f>
@@ -4578,27 +5153,27 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2">
         <f>ABS(-(2*PI())/(D8^2))*D11</f>
-        <v>5.1464531380727457E-2</v>
+        <v>0.10292906276145491</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
         <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
@@ -4606,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <f>B16*$D$42</f>
+        <f t="shared" ref="C16:C25" si="1">B16*$D$42</f>
         <v>0</v>
       </c>
       <c r="D16">
@@ -4618,14 +5193,14 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <f>B17*$D$42</f>
+        <f t="shared" si="1"/>
         <v>1.9460000000000002</v>
       </c>
       <c r="D17">
         <v>14.2</v>
       </c>
       <c r="L17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M17">
         <f>D17/D18</f>
@@ -4637,7 +5212,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <f>B18*$D$42</f>
+        <f t="shared" si="1"/>
         <v>3.8920000000000003</v>
       </c>
       <c r="D18">
@@ -4649,7 +5224,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <f>B19*$D$42</f>
+        <f t="shared" si="1"/>
         <v>5.838000000000001</v>
       </c>
       <c r="D19">
@@ -4661,7 +5236,7 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <f>B20*$D$42</f>
+        <f t="shared" si="1"/>
         <v>7.7840000000000007</v>
       </c>
       <c r="D20">
@@ -4673,7 +5248,7 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <f>B21*$D$42</f>
+        <f t="shared" si="1"/>
         <v>9.73</v>
       </c>
       <c r="D21">
@@ -4685,7 +5260,7 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <f>B22*$D$42</f>
+        <f t="shared" si="1"/>
         <v>11.676000000000002</v>
       </c>
       <c r="D22">
@@ -4697,7 +5272,7 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <f>B23*$D$42</f>
+        <f t="shared" si="1"/>
         <v>13.622000000000002</v>
       </c>
       <c r="D23">
@@ -4709,7 +5284,7 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <f>B24*$D$42</f>
+        <f t="shared" si="1"/>
         <v>15.568000000000001</v>
       </c>
       <c r="D24">
@@ -4721,7 +5296,7 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <f>B25*$D$42</f>
+        <f t="shared" si="1"/>
         <v>17.514000000000003</v>
       </c>
       <c r="D25">
@@ -4730,15 +5305,15 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
@@ -4746,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <f>B28*$D$39</f>
+        <f t="shared" ref="C28:C35" si="2">B28*$D$39</f>
         <v>0</v>
       </c>
       <c r="D28">
@@ -4758,14 +5333,14 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <f>B29*$D$39</f>
+        <f t="shared" si="2"/>
         <v>1.9449999999999998</v>
       </c>
       <c r="D29">
         <v>9.1999999999999993</v>
       </c>
       <c r="L29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M29">
         <f>D29/D30</f>
@@ -4777,7 +5352,7 @@
         <v>2</v>
       </c>
       <c r="C30">
-        <f>B30*$D$39</f>
+        <f t="shared" si="2"/>
         <v>3.8899999999999997</v>
       </c>
       <c r="D30">
@@ -4789,7 +5364,7 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <f>B31*$D$39</f>
+        <f t="shared" si="2"/>
         <v>5.8349999999999991</v>
       </c>
       <c r="D31">
@@ -4801,7 +5376,7 @@
         <v>4</v>
       </c>
       <c r="C32">
-        <f>B32*$D$39</f>
+        <f t="shared" si="2"/>
         <v>7.7799999999999994</v>
       </c>
       <c r="D32">
@@ -4813,7 +5388,7 @@
         <v>5</v>
       </c>
       <c r="C33">
-        <f>B33*$D$39</f>
+        <f t="shared" si="2"/>
         <v>9.7249999999999996</v>
       </c>
       <c r="D33">
@@ -4825,7 +5400,7 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <f>B34*$D$39</f>
+        <f t="shared" si="2"/>
         <v>11.669999999999998</v>
       </c>
       <c r="D34">
@@ -4837,7 +5412,7 @@
         <v>7</v>
       </c>
       <c r="C35">
-        <f>B35*$D$39</f>
+        <f t="shared" si="2"/>
         <v>13.614999999999998</v>
       </c>
       <c r="D35">
@@ -4845,31 +5420,31 @@
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="I38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="5"/>
-      <c r="I38" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="5"/>
+      <c r="J38" s="6"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39">
         <f>SUM(D40:D41)</f>
         <v>1.9449999999999998</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G39">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="I39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J39">
         <v>0.27800000000000002</v>
@@ -4880,14 +5455,14 @@
         <v>0.93</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G40">
         <f>LN(M17)/D42</f>
         <v>8.6503245025290193E-2</v>
       </c>
       <c r="I40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J40">
         <f>LN(M29)/D39</f>
@@ -4901,7 +5476,7 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D42">
         <f>SUM(D43:D44)</f>
@@ -4920,41 +5495,41 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="D47" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="E47" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="F47" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="I47" t="s">
         <v>18</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I47" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="7">
+      <c r="B48" s="4">
         <v>445</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="4">
         <v>1117</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="4">
         <v>1054</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="4">
         <f>C48+D48</f>
         <v>2171</v>
       </c>
@@ -4962,10 +5537,10 @@
         <f>2*PI()/E48*1000</f>
         <v>2.8941433934498324</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="5">
         <v>2.4</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="4">
         <v>65</v>
       </c>
       <c r="I48" s="1">
@@ -4974,350 +5549,350 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="7">
+      <c r="B49" s="4">
         <v>465</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="4">
         <v>1058</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="4">
         <v>1026</v>
       </c>
-      <c r="E49" s="7">
-        <f t="shared" ref="E49:E60" si="1">C49+D49</f>
+      <c r="E49" s="4">
+        <f t="shared" ref="E49:E60" si="3">C49+D49</f>
         <v>2084</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" ref="F49:F60" si="2">2*PI()/E49*1000</f>
+        <f t="shared" ref="F49:F60" si="4">2*PI()/E49*1000</f>
         <v>3.0149641589153484</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="5">
         <v>3.4</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="4">
         <v>122</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" ref="I49:I60" si="3">360*H49/E49</f>
+        <f t="shared" ref="I49:I60" si="5">360*H49/E49</f>
         <v>21.074856046065261</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="7">
+      <c r="B50" s="4">
         <v>475</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="4">
         <v>1034</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="4">
         <v>1015</v>
       </c>
-      <c r="E50" s="7">
-        <f t="shared" si="1"/>
+      <c r="E50" s="4">
+        <f t="shared" si="3"/>
         <v>2049</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.066464278760169</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="5">
         <v>4.5</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="4">
         <v>163</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>28.63836017569546</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="7">
+      <c r="B51" s="4">
         <v>485</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="4">
         <v>1001</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="4">
         <v>1003</v>
       </c>
-      <c r="E51" s="7">
-        <f t="shared" si="1"/>
+      <c r="E51" s="4">
+        <f t="shared" si="3"/>
         <v>2004</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.1353220095706518</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="5">
         <v>6.4</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="4">
         <v>248</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44.550898203592816</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="7">
+      <c r="B52" s="4">
         <v>490</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="4">
         <v>984</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="4">
         <v>998</v>
       </c>
-      <c r="E52" s="7">
-        <f t="shared" si="1"/>
+      <c r="E52" s="4">
+        <f t="shared" si="3"/>
         <v>1982</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.1701237674972682</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="5">
         <v>8</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="4">
         <v>308</v>
       </c>
       <c r="I52" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>55.943491422805245</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="7">
+      <c r="B53" s="4">
         <v>495</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="4">
         <v>971</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="4">
         <v>994</v>
       </c>
-      <c r="E53" s="7">
-        <f t="shared" si="1"/>
+      <c r="E53" s="4">
+        <f t="shared" si="3"/>
         <v>1965</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.1975497746461001</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="5">
         <v>9.4</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="4">
         <v>397</v>
       </c>
       <c r="I53" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>72.732824427480921</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="7">
+      <c r="B54" s="4">
         <v>500</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="4">
         <v>959</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="4">
         <v>987</v>
       </c>
-      <c r="E54" s="7">
-        <f t="shared" si="1"/>
+      <c r="E54" s="4">
+        <f t="shared" si="3"/>
         <v>1946</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.2287694281498389</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="5">
         <v>10</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="4">
         <v>498</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>92.127440904419316</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="7">
+      <c r="B55" s="4">
         <v>505</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="4">
         <v>950</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="4">
         <v>974</v>
       </c>
-      <c r="E55" s="7">
-        <f t="shared" si="1"/>
+      <c r="E55" s="4">
+        <f t="shared" si="3"/>
         <v>1924</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.2656888290954194</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="5">
         <v>9.4</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="4">
         <v>617</v>
       </c>
       <c r="I55" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>115.44698544698545</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="7">
+      <c r="B56" s="4">
         <v>510</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="4">
         <v>946</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="4">
         <v>965</v>
       </c>
-      <c r="E56" s="7">
-        <f t="shared" si="1"/>
+      <c r="E56" s="4">
+        <f t="shared" si="3"/>
         <v>1911</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.2879043993613744</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="5">
         <v>8.4</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="4">
         <v>667</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>125.65149136577708</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="7">
+      <c r="B57" s="4">
         <v>515</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="4">
         <v>941</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="4">
         <v>950</v>
       </c>
-      <c r="E57" s="7">
-        <f t="shared" si="1"/>
+      <c r="E57" s="4">
+        <f t="shared" si="3"/>
         <v>1891</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.3226786394392311</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G57" s="5">
         <v>7</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="4">
         <v>717</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>136.49920676890534</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="7">
+      <c r="B58" s="4">
         <v>525</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="4">
         <v>931</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="4">
         <v>924</v>
       </c>
-      <c r="E58" s="7">
-        <f t="shared" si="1"/>
+      <c r="E58" s="4">
+        <f t="shared" si="3"/>
         <v>1855</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.3871618906628496</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58" s="5">
         <v>4.8</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58" s="4">
         <v>761</v>
       </c>
       <c r="I58" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>147.68733153638814</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="7">
+      <c r="B59" s="4">
         <v>535</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="4">
         <v>923</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="4">
         <v>901</v>
       </c>
-      <c r="E59" s="7">
-        <f t="shared" si="1"/>
+      <c r="E59" s="4">
+        <f t="shared" si="3"/>
         <v>1824</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.4447287868309138</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G59" s="5">
         <v>3.8</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="4">
         <v>777</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>153.35526315789474</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="7">
+      <c r="B60" s="4">
         <v>555</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="4">
         <v>906</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="4">
         <v>859</v>
       </c>
-      <c r="E60" s="7">
-        <f t="shared" si="1"/>
+      <c r="E60" s="4">
+        <f t="shared" si="3"/>
         <v>1765</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.5598783610082645</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G60" s="5">
         <v>2.4</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="4">
         <v>771</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>157.25779036827194</v>
       </c>
     </row>
